--- a/biology/Botanique/Andréas_Speich/Andréas_Speich.xlsx
+++ b/biology/Botanique/Andréas_Speich/Andréas_Speich.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9as_Speich</t>
+          <t>Andréas_Speich</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Andréas Speich est l'ancien directeur de la forêt de Zurich, il est connu pour ses théories sur la gestion durable des forêts utilisant des bio-automatismes dans la technique dite du semis direct, ce qui le rend proche de forestiers comme Akira Miyawaki ou d'écoles de sylvicultures telles que Prosilva.
-Il a ainsi œuvré pour la conservation d'une "ceinture verte" autour de Zurich (restauration et préservation de forêts, réserves naturelles[1]).
+Il a ainsi œuvré pour la conservation d'une "ceinture verte" autour de Zurich (restauration et préservation de forêts, réserves naturelles).
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9as_Speich</t>
+          <t>Andréas_Speich</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Éléments de biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ingénieur forestier EPF/SIA de formation, A Speich a été directeur de la forêt de Zurich et a été consultant en Europe (Euroconsultant) et en Afrique sur le thème de la restauration d'écosystèmes naturels[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ingénieur forestier EPF/SIA de formation, A Speich a été directeur de la forêt de Zurich et a été consultant en Europe (Euroconsultant) et en Afrique sur le thème de la restauration d'écosystèmes naturels. 
 </t>
         </is>
       </c>
